--- a/medicine/Psychotrope/Liste_de_tonneaux_géants/Liste_de_tonneaux_géants.xlsx
+++ b/medicine/Psychotrope/Liste_de_tonneaux_géants/Liste_de_tonneaux_géants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_tonneaux_g%C3%A9ants</t>
+          <t>Liste_de_tonneaux_géants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tonneaux géants sont des tonneaux en bois de grande taille, conçus à partir du XVIe siècle pour stocker le vin perçu par l'impôt.
 Les tonneaux géants conservés dans d'anciens châteaux sont souvent ornés de sculptures en bas-reliefs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_tonneaux_g%C3%A9ants</t>
+          <t>Liste_de_tonneaux_géants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Les premiers tonneaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au musée Calvet d’Avignon se trouve sur un bas-relief, découvert à Cabrières-d’Aigues, la première représentation connue de tonneaux. La scène montre deux esclaves halant une barque dirigée par un nautonier, dans celle-ci deux barriques cerclées en bois[1] et, positionnées au-dessus, quatre amphores à fond plat avec trois autres récipients ressemblant à des bonbonnes.
-Il s’agit, très certainement, du reste d’un monument à la gloire d’un négociant spécialisé dans le trafic des vins du pagus aquensi[2] sur la Durance.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au musée Calvet d’Avignon se trouve sur un bas-relief, découvert à Cabrières-d’Aigues, la première représentation connue de tonneaux. La scène montre deux esclaves halant une barque dirigée par un nautonier, dans celle-ci deux barriques cerclées en bois et, positionnées au-dessus, quatre amphores à fond plat avec trois autres récipients ressemblant à des bonbonnes.
+Il s’agit, très certainement, du reste d’un monument à la gloire d’un négociant spécialisé dans le trafic des vins du pagus aquensi sur la Durance.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_tonneaux_g%C3%A9ants</t>
+          <t>Liste_de_tonneaux_géants</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Les tonneaux de Heidelberg</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La visite du château de Heidelberg, dans le Bade-Wurtemberg, est célèbre pour ses caves, accessibles par une vaste cour ayant servi de place d’armes. Creusées sous un bâtiment qui a depuis disparu, elles abritent deux gigantesques tonneaux : le plus petit contient 3 000 litres, et le plus gros 228 000.
 Un premier grand tonneau a été construit en 1591, avec une capacité de 127 000 litres, mais il a été détruit par le feu au cours de la guerre de Trente Ans. 
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_tonneaux_g%C3%A9ants</t>
+          <t>Liste_de_tonneaux_géants</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Le tonneau de Ludwigsbourg</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré leur réputation, les tonneaux du château de Heidelberg, ne sont ni les plus grands, ni les plus beaux, ni les plus anciens. La palme revient au gigantesque foudre qui repose dans les caves du vieux château de Ludwigsbourg, sur les bords du Neckar, près de Stuttgart.
 D’après les documents, soigneusement conservés dans la bibliothèque du château, il fut construit, en 1719, sur ordre du duc Eberhard-Louis, par son tonnelier J.W. Aekermann, et le sculpteur Kaspard Selfried fut chargé de l’ornementation. Cette réalisation exigea l’emploi de trente chênes, cinq hêtres et un poirier. Mais son coût de construction n’a pas excédé 1 108 florins et 43 kreutzers.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_tonneaux_g%C3%A9ants</t>
+          <t>Liste_de_tonneaux_géants</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Le tonneau de Nagykanizsa</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’exposition universelle de 1878, la Hongrie envoya, dans trois wagons, un énorme tonneau qui fut l’attraction de son stand. Il était l’œuvre de M. Gutmann, tonnelier à Nagykanizsa. Ce « petit » chef-d’œuvre d’une longueur de 5,50 m et d’un diamètre égal (à la bonde), avait nécessité des douelles de 20 cm d’épaisseur et pouvait contenir 1 000 hectolitres. Sa façade était ornée d’une scène de vendanges. Son prix de revient fut estimé, à l’époque, aux environs de 10 000 florins. Durant l’exposition, il fut ouvert au public et 160 personnes purent se tenir à l’aise à l’intérieur.[réf. nécessaire]
 </t>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_tonneaux_g%C3%A9ants</t>
+          <t>Liste_de_tonneaux_géants</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,9 +665,11 @@
           <t>Le foudre Mercier</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1871, Eugène Mercier lance la construction d'un foudre de 160 000 litres et pour faire connaître son champagne, il va le déplacer jusqu'à Paris pour l'Exposition universelle de 1889 où il arriva le 7 mai 1889[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1871, Eugène Mercier lance la construction d'un foudre de 160 000 litres et pour faire connaître son champagne, il va le déplacer jusqu'à Paris pour l'Exposition universelle de 1889 où il arriva le 7 mai 1889.
 			Pavillon des denrées alimentaires, Exposition Universelle.
 			Le foudre sculpté par Gustave Navlet
 			Arrivée à Paris, le 7 mai 1889.
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_tonneaux_g%C3%A9ants</t>
+          <t>Liste_de_tonneaux_géants</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,9 +701,11 @@
           <t>Le tonneau de Thuir</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mais ces records des siècles passés ont largement été dépassés par la technique contemporaine. Aujourd’hui le record de la plus grande cuve du monde appartient à la maison Byrrh, à Thuir, dans les Pyrénées Orientales, avec une contenance de 10 002 hectolitres – soit plus d’un million de litres – Ce géant, construit par la société française de tonnellerie Marchive-Fruhinsholz[4],[5] , a une hauteur de 10 m, pour un diamètre de base de 12,46 m, celui du haut atteignant 10,48 m. Ses douelles en chêne ont une épaisseur de 16 cm pour le fond et de 14 cm pour les parois. La cuve pèse à vide 110 tonnes et pleine 1100.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mais ces records des siècles passés ont largement été dépassés par la technique contemporaine. Aujourd’hui le record de la plus grande cuve du monde appartient à la maison Byrrh, à Thuir, dans les Pyrénées Orientales, avec une contenance de 10 002 hectolitres – soit plus d’un million de litres – Ce géant, construit par la société française de tonnellerie Marchive-Fruhinsholz, , a une hauteur de 10 m, pour un diamètre de base de 12,46 m, celui du haut atteignant 10,48 m. Ses douelles en chêne ont une épaisseur de 16 cm pour le fond et de 14 cm pour les parois. La cuve pèse à vide 110 tonnes et pleine 1100.
 Pour résister à la pression, son cerclage a nécessité des rondins d’acier de 4 cm d’épaisseur. Pour rendre compte de la complexité de la tâche, il est à noter que la maison Byrrh passa sa commande en 1935 et réceptionna sa cuve en 1950. Cette gigantesque cuve a une « petite sœur » de 4 205 hectolitres. Sa hauteur est de 7,20 m, avec un diamètre de 9,30 m. Cette dernière cuve pèse 35 tonnes à vide et 455 tonnes quand elle est pleine.
 </t>
         </is>
@@ -693,7 +717,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_tonneaux_g%C3%A9ants</t>
+          <t>Liste_de_tonneaux_géants</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -711,9 +735,11 @@
           <t>Autres boissons</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2002, la distillerie brésilienne Ypióca fait fabriquer le plus grand tonneau de cachaça en bois destiné à devenir une attraction majeure au sein de son Musée de la Cachaça installé dans la maison-mère à Maranguape au Ceará. Son diamètre est de 7,85 m pour une hauteur de 8 m et une capacité de 374 000 l[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2002, la distillerie brésilienne Ypióca fait fabriquer le plus grand tonneau de cachaça en bois destiné à devenir une attraction majeure au sein de son Musée de la Cachaça installé dans la maison-mère à Maranguape au Ceará. Son diamètre est de 7,85 m pour une hauteur de 8 m et une capacité de 374 000 l.
 Un autre grand tonneau en bois a été fait par Fundokin Soy Co. Ltd, en 2002, pour le brassage de la sauce de soja. Son diamètre est de 9 m pour une hauteur de 9 m et une capacité de 540 000 l. Il se trouve à Usuki, au Japon.[réf. nécessaire]
 </t>
         </is>
